--- a/CorrectLink/ig/StructureDefinition-FrMPSubstance2Active.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrMPSubstance2Active.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="196">
   <si>
     <t>Property</t>
   </si>
@@ -348,9 +348,6 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -494,9 +491,6 @@
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
@@ -1417,7 +1411,7 @@
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>105</v>
@@ -1426,7 +1420,7 @@
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>20</v>
@@ -1434,10 +1428,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1457,22 +1451,22 @@
         <v>20</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>20</v>
@@ -1509,10 +1503,10 @@
         <v>20</v>
       </c>
       <c r="AB5" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC5" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>20</v>
@@ -1521,7 +1515,7 @@
         <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1530,30 +1524,30 @@
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AL5" t="s" s="2">
+      <c r="AM5" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>20</v>
@@ -1572,22 +1566,22 @@
         <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>20</v>
@@ -1612,14 +1606,14 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
       </c>
@@ -1636,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1645,27 +1639,27 @@
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AL6" t="s" s="2">
+      <c r="AM6" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1771,10 +1765,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1865,7 +1859,7 @@
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>105</v>
@@ -1874,7 +1868,7 @@
         <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -1882,10 +1876,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1905,71 +1899,71 @@
         <v>20</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1978,27 +1972,27 @@
         <v>89</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AL9" t="s" s="2">
+      <c r="AM9" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2018,19 +2012,19 @@
         <v>20</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2080,7 +2074,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2089,27 +2083,27 @@
         <v>89</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2129,22 +2123,20 @@
         <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -2193,7 +2185,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2202,27 +2194,27 @@
         <v>89</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2242,22 +2234,20 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -2306,7 +2296,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2315,27 +2305,27 @@
         <v>89</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2355,22 +2345,22 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -2419,7 +2409,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2428,30 +2418,30 @@
         <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>20</v>
@@ -2470,22 +2460,22 @@
         <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -2534,7 +2524,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2543,27 +2533,27 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2669,10 +2659,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2763,7 +2753,7 @@
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>105</v>
@@ -2772,7 +2762,7 @@
         <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -2780,10 +2770,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2803,22 +2793,22 @@
         <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -2828,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>20</v>
@@ -2867,7 +2857,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2876,27 +2866,27 @@
         <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2916,19 +2906,19 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2978,7 +2968,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -2987,27 +2977,27 @@
         <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3027,22 +3017,20 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3091,7 +3079,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3100,27 +3088,27 @@
         <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3140,22 +3128,20 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3204,7 +3190,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3213,27 +3199,27 @@
         <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3253,22 +3239,22 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -3317,7 +3303,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3326,27 +3312,27 @@
         <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3366,22 +3352,22 @@
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>90</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -3430,7 +3416,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3439,19 +3425,19 @@
         <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
